--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a1-Itga2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.072131000000001</v>
+        <v>1.046867666666667</v>
       </c>
       <c r="H2">
-        <v>18.216393</v>
+        <v>3.140603</v>
       </c>
       <c r="I2">
-        <v>0.003943999267036455</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="J2">
-        <v>0.003943999267036454</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.242496666666667</v>
+        <v>0.2615913333333333</v>
       </c>
       <c r="N2">
-        <v>3.72749</v>
+        <v>0.784774</v>
       </c>
       <c r="O2">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481725</v>
       </c>
       <c r="P2">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481727</v>
       </c>
       <c r="Q2">
-        <v>7.544602527063336</v>
+        <v>0.2738515087468889</v>
       </c>
       <c r="R2">
-        <v>67.90142274357002</v>
+        <v>2.464663578722</v>
       </c>
       <c r="S2">
-        <v>0.001290570514652311</v>
+        <v>5.664777369670898E-05</v>
       </c>
       <c r="T2">
-        <v>0.001290570514652311</v>
+        <v>5.664777369670899E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.072131000000001</v>
+        <v>1.046867666666667</v>
       </c>
       <c r="H3">
-        <v>18.216393</v>
+        <v>3.140603</v>
       </c>
       <c r="I3">
-        <v>0.003943999267036455</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="J3">
-        <v>0.003943999267036454</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>1.744414</v>
       </c>
       <c r="N3">
-        <v>5.233242</v>
+        <v>5.233242000000001</v>
       </c>
       <c r="O3">
-        <v>0.4594087306446919</v>
+        <v>0.5494561706387266</v>
       </c>
       <c r="P3">
-        <v>0.4594087306446918</v>
+        <v>0.5494561706387268</v>
       </c>
       <c r="Q3">
-        <v>10.592310326234</v>
+        <v>1.826170613880667</v>
       </c>
       <c r="R3">
-        <v>95.33079293610601</v>
+        <v>16.435535524926</v>
       </c>
       <c r="S3">
-        <v>0.001811907696932813</v>
+        <v>0.0003777539884299336</v>
       </c>
       <c r="T3">
-        <v>0.001811907696932812</v>
+        <v>0.0003777539884299337</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.072131000000001</v>
+        <v>1.046867666666667</v>
       </c>
       <c r="H4">
-        <v>18.216393</v>
+        <v>3.140603</v>
       </c>
       <c r="I4">
-        <v>0.003943999267036455</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="J4">
-        <v>0.003943999267036454</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8101743333333333</v>
+        <v>1.168795666666667</v>
       </c>
       <c r="N4">
-        <v>2.430523</v>
+        <v>3.506387</v>
       </c>
       <c r="O4">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="P4">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="Q4">
-        <v>4.919484684837668</v>
+        <v>1.223574392373445</v>
       </c>
       <c r="R4">
-        <v>44.27536216353901</v>
+        <v>11.012169531361</v>
       </c>
       <c r="S4">
-        <v>0.0008415210554513304</v>
+        <v>0.0002531034632506713</v>
       </c>
       <c r="T4">
-        <v>0.0008415210554513302</v>
+        <v>0.0002531034632506713</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,43 +723,43 @@
         <v>1480.851806666667</v>
       </c>
       <c r="H5">
-        <v>4442.555420000001</v>
+        <v>4442.55542</v>
       </c>
       <c r="I5">
-        <v>0.9618498744646554</v>
+        <v>0.9725138978974124</v>
       </c>
       <c r="J5">
-        <v>0.9618498744646552</v>
+        <v>0.9725138978974125</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.242496666666667</v>
+        <v>0.2615913333333333</v>
       </c>
       <c r="N5">
-        <v>3.72749</v>
+        <v>0.784774</v>
       </c>
       <c r="O5">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481725</v>
       </c>
       <c r="P5">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481727</v>
       </c>
       <c r="Q5">
-        <v>1839.953433610645</v>
+        <v>387.3779985750089</v>
       </c>
       <c r="R5">
-        <v>16559.5809024958</v>
+        <v>3486.40198717508</v>
       </c>
       <c r="S5">
-        <v>0.3147401922411761</v>
+        <v>0.08013138689202293</v>
       </c>
       <c r="T5">
-        <v>0.3147401922411761</v>
+        <v>0.08013138689202294</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>1480.851806666667</v>
       </c>
       <c r="H6">
-        <v>4442.555420000001</v>
+        <v>4442.55542</v>
       </c>
       <c r="I6">
-        <v>0.9618498744646554</v>
+        <v>0.9725138978974124</v>
       </c>
       <c r="J6">
-        <v>0.9618498744646552</v>
+        <v>0.9725138978974125</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,13 +803,13 @@
         <v>1.744414</v>
       </c>
       <c r="N6">
-        <v>5.233242</v>
+        <v>5.233242000000001</v>
       </c>
       <c r="O6">
-        <v>0.4594087306446919</v>
+        <v>0.5494561706387266</v>
       </c>
       <c r="P6">
-        <v>0.4594087306446918</v>
+        <v>0.5494561706387268</v>
       </c>
       <c r="Q6">
         <v>2583.218623474627</v>
@@ -818,10 +818,10 @@
         <v>23248.96761127164</v>
       </c>
       <c r="S6">
-        <v>0.4418822298985636</v>
+        <v>0.5343537622316538</v>
       </c>
       <c r="T6">
-        <v>0.4418822298985635</v>
+        <v>0.534353762231654</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>1480.851806666667</v>
       </c>
       <c r="H7">
-        <v>4442.555420000001</v>
+        <v>4442.55542</v>
       </c>
       <c r="I7">
-        <v>0.9618498744646554</v>
+        <v>0.9725138978974124</v>
       </c>
       <c r="J7">
-        <v>0.9618498744646552</v>
+        <v>0.9725138978974125</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8101743333333333</v>
+        <v>1.168795666666667</v>
       </c>
       <c r="N7">
-        <v>2.430523</v>
+        <v>3.506387</v>
       </c>
       <c r="O7">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="P7">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="Q7">
-        <v>1199.748125231629</v>
+        <v>1730.813174607505</v>
       </c>
       <c r="R7">
-        <v>10797.73312708466</v>
+        <v>15577.31857146754</v>
       </c>
       <c r="S7">
-        <v>0.2052274523249157</v>
+        <v>0.3580287487737356</v>
       </c>
       <c r="T7">
-        <v>0.2052274523249156</v>
+        <v>0.3580287487737357</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>52.663316</v>
+        <v>40.80635833333333</v>
       </c>
       <c r="H8">
-        <v>157.989948</v>
+        <v>122.419075</v>
       </c>
       <c r="I8">
-        <v>0.0342061262683083</v>
+        <v>0.02679859687721029</v>
       </c>
       <c r="J8">
-        <v>0.0342061262683083</v>
+        <v>0.0267985968772103</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.242496666666667</v>
+        <v>0.2615913333333333</v>
       </c>
       <c r="N8">
-        <v>3.72749</v>
+        <v>0.784774</v>
       </c>
       <c r="O8">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481725</v>
       </c>
       <c r="P8">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481727</v>
       </c>
       <c r="Q8">
-        <v>65.43399458561335</v>
+        <v>10.67458968489444</v>
       </c>
       <c r="R8">
-        <v>588.9059512705201</v>
+        <v>96.07130716405</v>
       </c>
       <c r="S8">
-        <v>0.01119305937790494</v>
+        <v>0.00220810081909762</v>
       </c>
       <c r="T8">
-        <v>0.01119305937790494</v>
+        <v>0.002208100819097621</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>52.663316</v>
+        <v>40.80635833333333</v>
       </c>
       <c r="H9">
-        <v>157.989948</v>
+        <v>122.419075</v>
       </c>
       <c r="I9">
-        <v>0.0342061262683083</v>
+        <v>0.02679859687721029</v>
       </c>
       <c r="J9">
-        <v>0.0342061262683083</v>
+        <v>0.0267985968772103</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>1.744414</v>
       </c>
       <c r="N9">
-        <v>5.233242</v>
+        <v>5.233242000000001</v>
       </c>
       <c r="O9">
-        <v>0.4594087306446919</v>
+        <v>0.5494561706387266</v>
       </c>
       <c r="P9">
-        <v>0.4594087306446918</v>
+        <v>0.5494561706387268</v>
       </c>
       <c r="Q9">
-        <v>91.866625716824</v>
+        <v>71.18318276568333</v>
       </c>
       <c r="R9">
-        <v>826.799631451416</v>
+        <v>640.6486448911501</v>
       </c>
       <c r="S9">
-        <v>0.01571459304919557</v>
+        <v>0.01472465441864291</v>
       </c>
       <c r="T9">
-        <v>0.01571459304919556</v>
+        <v>0.01472465441864291</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>52.663316</v>
+        <v>40.80635833333333</v>
       </c>
       <c r="H10">
-        <v>157.989948</v>
+        <v>122.419075</v>
       </c>
       <c r="I10">
-        <v>0.0342061262683083</v>
+        <v>0.02679859687721029</v>
       </c>
       <c r="J10">
-        <v>0.0342061262683083</v>
+        <v>0.0267985968772103</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8101743333333333</v>
+        <v>1.168795666666667</v>
       </c>
       <c r="N10">
-        <v>2.430523</v>
+        <v>3.506387</v>
       </c>
       <c r="O10">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="P10">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="Q10">
-        <v>42.66646693142267</v>
+        <v>47.69429479244722</v>
       </c>
       <c r="R10">
-        <v>383.998202382804</v>
+        <v>429.248653132025</v>
       </c>
       <c r="S10">
-        <v>0.007298473841207795</v>
+        <v>0.009865841639469767</v>
       </c>
       <c r="T10">
-        <v>0.007298473841207792</v>
+        <v>0.009865841639469771</v>
       </c>
     </row>
   </sheetData>
